--- a/xlwings/Book1.xlsx
+++ b/xlwings/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazak.ke\Documents\PythonProjects\MyTrials\xlwings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7512B31-EED4-4928-9EC6-FAC910690A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{507053B8-3969-479A-A961-DFD842D5A8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="456" windowWidth="24828" windowHeight="14748" xr2:uid="{48EB25B5-2FA1-458D-9E4B-40D1E344A4CF}"/>
+    <workbookView xWindow="1572" yWindow="1932" windowWidth="24828" windowHeight="14748" xr2:uid="{D84B8BE4-902F-4BF9-A58A-BEA966A20D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -34,20 +34,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,39 +45,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="25"/>
-      <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="25"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,13 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -423,225 +381,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899E910D-CE5F-4BB3-B16A-2BE1FAF1C20F}">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D454BDF-A9E6-4E0F-9664-9964578D08AF}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="31.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="32.4">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="32.4">
-      <c r="A5" s="3"/>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="32.4">
-      <c r="A6" s="3"/>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="32.4">
-      <c r="A7" s="3"/>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="32.4">
-      <c r="A8" s="3"/>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="32.4">
-      <c r="A9" s="3"/>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="32.4">
-      <c r="A10" s="3"/>
-      <c r="K10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="32.4">
-      <c r="A11" s="3"/>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="32.4">
-      <c r="A12" s="3"/>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="32.4">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="32.4">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="32.4">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="32.4">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" ht="32.4">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="32.4">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" ht="32.4">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" ht="32.4">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" ht="32.4">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" ht="32.4">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" ht="32.4">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" ht="32.4">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" ht="32.4">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" ht="32.4">
-      <c r="A26" s="3"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF35B50-FC10-429E-976C-992BAFCAB000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87B94F5-DFC1-42F9-AE9B-6A0033287182}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlwings/Book1.xlsx
+++ b/xlwings/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazak.ke\Documents\PythonProjects\MyTrials\xlwings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{507053B8-3969-479A-A961-DFD842D5A8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BA5B19-A7F6-480C-8AFA-4AFB0CCA5A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1572" yWindow="1932" windowWidth="24828" windowHeight="14748" xr2:uid="{D84B8BE4-902F-4BF9-A58A-BEA966A20D2F}"/>
+    <workbookView xWindow="3012" yWindow="1692" windowWidth="25356" windowHeight="13776" xr2:uid="{D84B8BE4-902F-4BF9-A58A-BEA966A20D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -32,6 +32,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>geeks</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>This</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +411,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D454BDF-A9E6-4E0F-9664-9964578D08AF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
